--- a/Ben_pizza/data/customers.xlsx
+++ b/Ben_pizza/data/customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\SQL-Projects\Ben_pizza\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDC6141-C1D6-447C-AFE5-80577342D891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911642D4-5654-4883-A704-A8E2C2BB01B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -567,9 +567,6 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
